--- a/xlsx/大众百科_intext.xlsx
+++ b/xlsx/大众百科_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
   <si>
     <t>大众百科</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>網絡百科全書</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_大众百科</t>
+    <t>网络百科全书</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_大众百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E6%A1%91%E6%A0%BC</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki%E6%8A%80%E6%9C%AF</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%A7%E5%AE%B9</t>
   </si>
   <si>
-    <t>自由內容</t>
+    <t>自由内容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E7%BA%BF%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -101,9 +101,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>维基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%A1%8C%E8%A9%95%E5%AF%A9</t>
   </si>
   <si>
-    <t>同行評審</t>
+    <t>同行评审</t>
   </si>
   <si>
     <t>http://en.citizendium.org/wiki/Welcome_to_Citizendium</t>
@@ -179,31 +176,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>維基</t>
+    <t>维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%B6%89%E5%8F%8A%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81%E7%9A%84%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>對維基百科涉及利益衝突的編輯</t>
+    <t>对维基百科涉及利益冲突的编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對維基百科的批評</t>
+    <t>对维基百科的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E5%88%AA%E9%99%A4%E4%B8%BB%E7%BE%A9%E5%92%8C%E4%BF%9D%E7%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>維基百科的刪除主義和保留主義</t>
+    <t>维基百科的删除主义和保留主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%80%A7%E5%88%A5%E5%81%8F%E8%AA%A4</t>
   </si>
   <si>
-    <t>維基百科的性別偏誤</t>
+    <t>维基百科的性别偏误</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Racial_bias_on_Wikipedia</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B2%E8%A3%81%E5%A7%94%E5%93%A1%E6%9C%83_(%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91)</t>
   </si>
   <si>
-    <t>仲裁委員會 (英語維基百科)</t>
+    <t>仲裁委员会 (英语维基百科)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91%E6%9D%BE</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%84%9B%E5%8F%A4%E8%B9%9F</t>
   </si>
   <si>
-    <t>維基愛古蹟</t>
+    <t>维基爱古蹟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Art%2BFeminism</t>
@@ -299,19 +296,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E8%82%B2%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基教育基金會</t>
+    <t>维基教育基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>維基媒體運動</t>
+    <t>维基媒体运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%88%86%E4%BC%9A%E5%88%97%E8%A1%A8</t>
@@ -323,49 +320,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國維基媒體協會</t>
+    <t>德国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>法國維基媒體協會</t>
+    <t>法国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>義大利維基媒體協會</t>
+    <t>义大利维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>荷蘭維基媒體協會</t>
+    <t>荷兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>波蘭維基媒體協會</t>
+    <t>波兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>中華民國維基媒體協會</t>
+    <t>中华民国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>香港維基媒體協會</t>
+    <t>香港维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>澳門維基媒體協會</t>
+    <t>澳门维基媒体协会</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Amical_Wikimedia</t>
@@ -383,55 +380,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>元維基</t>
+    <t>元维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
+    <t>维基物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
@@ -443,25 +440,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E5%B9%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>中文維基年會</t>
+    <t>中文维基年会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E6%9C%97%E7%B5%B2%C2%B7%E5%BE%B7%E4%BC%8D%E9%98%BF%E7%88%BE</t>
   </si>
   <si>
-    <t>弗洛朗絲·德伍阿爾</t>
+    <t>弗洛朗丝·德伍阿尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oscar_van_Dillen</t>
@@ -473,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%C2%B7%E5%8A%A0%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>蘇·加德納</t>
+    <t>苏·加德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%B5%B7%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>詹姆斯·海爾曼</t>
+    <t>詹姆斯·海尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E7%91%9F%E7%90%B3%C2%B7%E9%A9%AC%E8%B5%AB</t>
@@ -509,25 +506,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E6%8B%89%C2%B7%E8%B2%9D%E7%B5%B2%E8%95%BE%C2%B7%E6%96%AF%E5%A1%94%E6%9E%97</t>
   </si>
   <si>
-    <t>安吉拉·貝絲蕾·斯塔林</t>
+    <t>安吉拉·贝丝蕾·斯塔林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E6%98%AD</t>
   </si>
   <si>
-    <t>時昭</t>
+    <t>时昭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E7%91%9C%E7%9C%9F</t>
   </si>
   <si>
-    <t>許瑜真</t>
+    <t>许瑜真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E9%9C%86_(%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93)</t>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%90%98%E9%8A%98</t>
   </si>
   <si>
-    <t>王鐘銘</t>
+    <t>王钟铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%A9%8E_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
-    <t>陳穎 (作家)</t>
+    <t>陈颖 (作家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%96%AF%E6%B1%80%C2%B7%E7%BA%B3%E6%99%AE</t>
@@ -557,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E8%AC%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>提姆·謝爾</t>
+    <t>提姆·谢尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>麥可·斯諾</t>
+    <t>麦可·斯诺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mike_Godwin</t>
@@ -581,25 +578,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%C2%B7%E5%93%88%E7%88%BE%E5%A1%94%E6%AF%94%E7%88%BE</t>
   </si>
   <si>
-    <t>巴塞爾·哈爾塔比爾</t>
+    <t>巴塞尔·哈尔塔比尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%88%E5%AE%89%E6%B2%BB</t>
   </si>
   <si>
-    <t>酈安治</t>
+    <t>郦安治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%BA%B7%E7%91%9E</t>
   </si>
   <si>
-    <t>麥康瑞</t>
+    <t>麦康瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E6%99%AE%E7%88%BE%E8%A5%BF%E6%96%90</t>
   </si>
   <si>
-    <t>西蒙·普爾西斐</t>
+    <t>西蒙·普尔西斐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%A6%C2%B7%E6%96%AF%E6%B2%83%E8%8C%A8</t>
@@ -611,19 +608,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%9C%8D%E7%88%BE%C2%B7%E6%9F%AF%E6%96%AF%E7%99%BB%E6%9F%AF</t>
   </si>
   <si>
-    <t>伊霍爾·柯斯登柯</t>
+    <t>伊霍尔·柯斯登柯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%B3%B3</t>
   </si>
   <si>
-    <t>唐鳳</t>
+    <t>唐凤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%89%B9%C2%B7%E6%B2%83%E7%88%BE%E4%BB%80</t>
   </si>
   <si>
-    <t>加特·沃爾什</t>
+    <t>加特·沃尔什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%B1%B3%C2%B7%E9%A9%AC%E8%92%82%E6%96%AF</t>
@@ -683,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>維基百科歷史</t>
+    <t>维基百科历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Bomis</t>
@@ -701,19 +698,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>維基百科標誌</t>
+    <t>维基百科标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>義大利語維基百科</t>
+    <t>义大利语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8DSOPA%E5%92%8CPIPA%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>反SOPA和PIPA抗議</t>
+    <t>反SOPA和PIPA抗议</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Pemadaman_Wikipedia_bahasa_Inggris</t>
@@ -731,13 +728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%E6%95%8D%E5%A5%A7%E7%89%B9%E8%BB%8D%E7%94%A8%E7%84%A1%E7%B7%9A%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>皮埃爾敍奧特軍用無線電台</t>
+    <t>皮埃尔敍奥特军用无线电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E4%B9%9F%E7%94%B3%E9%81%BA</t>
   </si>
   <si>
-    <t>維基百科也申遺</t>
+    <t>维基百科也申遗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1Lib1Ref</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9F%A5%E8%AD%98%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>維基百科知識引擎</t>
+    <t>维基百科知识引擎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Litigation_involving_the_Wikimedia_Foundation</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83%E6%8E%A7%E5%91%8A%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>維基媒體基金會控告美國國家安全局案</t>
+    <t>维基媒体基金会控告美国国家安全局案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Wikipedia_controversies</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E6%9D%9C%E9%A6%AC89417-6%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>俄羅斯國家杜馬89417-6法案</t>
+    <t>俄罗斯国家杜马89417-6法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B0%81%E9%94%81%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E4%BA%8B%E4%BB%B6</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%A1%86</t>
   </si>
   <si>
-    <t>資訊框</t>
+    <t>资讯框</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikiwand</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>維基百科應用程式</t>
+    <t>维基百科应用程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QRpedia</t>
@@ -965,13 +962,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A0%A1%E5%9C%92%E7%89%88</t>
   </si>
   <si>
-    <t>維基百科校園版</t>
+    <t>维基百科校园版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%8E%83%E6%8F%8F%E5%99%A8</t>
   </si>
   <si>
-    <t>維基掃描器</t>
+    <t>维基扫描器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quadriga_(award)</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%9C%89%E9%97%9C%E7%9A%84%E9%9B%BB%E5%BD%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>和維基百科有關的電影列表</t>
+    <t>和维基百科有关的电影列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Academic_studies_about_Wikipedia</t>
@@ -1109,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>偽基百科</t>
+    <t>伪基百科</t>
   </si>
   <si>
     <t>https://it.wikipedia.org/wiki/Nonciclopedia</t>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1908,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
         <v>15</v>
@@ -1937,10 +1934,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1966,10 +1963,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1995,10 +1992,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2024,10 +2021,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2053,10 +2050,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2111,10 +2108,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2140,10 +2137,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -2169,10 +2166,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2198,10 +2195,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2227,10 +2224,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2256,10 +2253,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -2285,10 +2282,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2314,10 +2311,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>59</v>
@@ -2343,10 +2340,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2372,10 +2369,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2401,10 +2398,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2430,10 +2427,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2459,10 +2456,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2488,10 +2485,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2517,10 +2514,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2546,10 +2543,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2575,10 +2572,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2604,10 +2601,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2633,10 +2630,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2662,10 +2659,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2691,10 +2688,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2720,10 +2717,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2749,10 +2746,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2778,10 +2775,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2807,10 +2804,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2836,10 +2833,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2865,10 +2862,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2894,10 +2891,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2923,10 +2920,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2952,10 +2949,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2981,10 +2978,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3010,10 +3007,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3039,10 +3036,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3068,10 +3065,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3097,10 +3094,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3126,10 +3123,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3155,10 +3152,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3184,10 +3181,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3213,10 +3210,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3242,10 +3239,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3271,10 +3268,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3300,10 +3297,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3329,10 +3326,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3358,10 +3355,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3387,10 +3384,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3416,10 +3413,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3445,10 +3442,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3474,10 +3471,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3503,10 +3500,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3532,10 +3529,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3561,10 +3558,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3590,10 +3587,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3619,10 +3616,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3648,10 +3645,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3677,10 +3674,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3706,10 +3703,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3735,10 +3732,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3764,10 +3761,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3793,10 +3790,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3822,10 +3819,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3851,10 +3848,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3880,10 +3877,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3909,10 +3906,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3938,10 +3935,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3967,10 +3964,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3996,10 +3993,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4025,10 +4022,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4054,10 +4051,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4083,10 +4080,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4112,10 +4109,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4141,10 +4138,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4170,10 +4167,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4199,10 +4196,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4228,10 +4225,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4257,10 +4254,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4286,10 +4283,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4315,10 +4312,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4344,10 +4341,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4373,10 +4370,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4402,10 +4399,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4431,10 +4428,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4460,10 +4457,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4489,10 +4486,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4518,10 +4515,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4547,10 +4544,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4576,10 +4573,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4605,10 +4602,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4634,10 +4631,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4663,10 +4660,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4692,10 +4689,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4721,10 +4718,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4750,10 +4747,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4779,10 +4776,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4808,10 +4805,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4837,10 +4834,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4866,10 +4863,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4895,10 +4892,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4924,10 +4921,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4953,10 +4950,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4982,10 +4979,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5011,10 +5008,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5040,10 +5037,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5069,10 +5066,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5098,10 +5095,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5127,10 +5124,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5156,10 +5153,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5185,10 +5182,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5214,10 +5211,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5243,10 +5240,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5272,10 +5269,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5301,10 +5298,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5330,10 +5327,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5359,10 +5356,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5388,10 +5385,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5417,10 +5414,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5446,10 +5443,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5475,10 +5472,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5504,10 +5501,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5533,10 +5530,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5562,10 +5559,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5591,10 +5588,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5620,10 +5617,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5649,10 +5646,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>48</v>
@@ -5678,10 +5675,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -5707,10 +5704,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5736,10 +5733,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5765,10 +5762,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5794,10 +5791,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5823,10 +5820,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5852,10 +5849,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5881,10 +5878,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5910,10 +5907,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5939,10 +5936,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5968,10 +5965,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -5997,10 +5994,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6026,10 +6023,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6055,10 +6052,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6084,10 +6081,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6113,10 +6110,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6142,10 +6139,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6171,10 +6168,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6200,10 +6197,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6229,10 +6226,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6258,10 +6255,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6287,10 +6284,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6316,10 +6313,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6345,10 +6342,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6374,10 +6371,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6403,10 +6400,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6432,10 +6429,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6461,10 +6458,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6490,10 +6487,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6519,10 +6516,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6548,10 +6545,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6577,10 +6574,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6606,10 +6603,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6635,10 +6632,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6664,10 +6661,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6693,10 +6690,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6722,10 +6719,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6751,10 +6748,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6780,10 +6777,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -6809,10 +6806,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6838,10 +6835,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -6867,10 +6864,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -6896,10 +6893,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -6925,10 +6922,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -6954,10 +6951,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6983,10 +6980,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7012,10 +7009,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7041,10 +7038,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7070,10 +7067,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
